--- a/notebook/empenhos_sipo.xlsx
+++ b/notebook/empenhos_sipo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX77"/>
+  <dimension ref="A1:AX79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1143,18 +1143,18 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>158.44</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>158.44</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>2361.56</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -5517,27 +5517,27 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>339033</t>
+          <t>339039</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>PASSAGENS E DESPESAS COM LOCOMOCAO</t>
+          <t>OUTROS SERVICOS DE TERCEIROS - PESSOA JURIDICA</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>33903309</t>
+          <t>33903914</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SERVIDORES</t>
+          <t>LOCACAO BENS MOV. OUT.NATUREZAS E INTANGIVEIS</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2023NE001339</t>
+          <t>2023NE000540</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -5546,26 +5546,26 @@
         </is>
       </c>
       <c r="W22" s="2" t="n">
-        <v>45244</v>
+        <v>45071</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>160129000012023NE001339</t>
+          <t>160129000012023NE000540</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>06071701000106</t>
+          <t>15072268000106</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>AMAV'S TURISMO LTDA</t>
+          <t>SGA TUDO PARA SEU EVENTO LTDA</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>209</v>
+        <v>390</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -5662,21 +5662,21 @@
         </is>
       </c>
       <c r="AU22" t="n">
-        <v>924</v>
+        <v>4570</v>
       </c>
       <c r="AV22" t="n">
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>924</v>
+        <v>4570</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -5765,17 +5765,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>33903914</t>
+          <t>33903916</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>LOCACAO BENS MOV. OUT.NATUREZAS E INTANGIVEIS</t>
+          <t>MANUTENCAO E CONSERV. DE BENS IMOVEIS</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2023NE000540</t>
+          <t>2023NE002688</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -5784,41 +5784,41 @@
         </is>
       </c>
       <c r="W23" s="2" t="n">
-        <v>45071</v>
+        <v>45271</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>160129000012023NE000540</t>
+          <t>160129000012023NE002688</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>15072268000106</t>
+          <t>53202768000104</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>SGA TUDO PARA SEU EVENTO LTDA</t>
+          <t>TOALL COMERCIO E SERVICOS LTDA.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>RPNP</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>190</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AC23" t="n">
-        <v>382</v>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
       <c r="AE23" t="inlineStr">
         <is>
           <t>1000000000</t>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>GLOBAL</t>
+          <t>ORDINARIO</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5900,21 +5900,21 @@
         </is>
       </c>
       <c r="AU23" t="n">
-        <v>4570</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
         <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>4570</v>
+        <v>0</v>
       </c>
       <c r="AX23" t="n">
-        <v>6240</v>
+        <v>5821.99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -6003,17 +6003,17 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>33903916</t>
+          <t>33903922</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>MANUTENCAO E CONSERV. DE BENS IMOVEIS</t>
+          <t>EXPOSICOES, CONGRESSOS E CONFERENCIAS</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2023NE002688</t>
+          <t>2023NE002724</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -6022,26 +6022,26 @@
         </is>
       </c>
       <c r="W24" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>160129000012023NE002688</t>
+          <t>160129000012023NE002724</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>53202768000104</t>
+          <t>31741500000108</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>TOALL COMERCIO E SERVICOS LTDA.</t>
+          <t>ELETROVIX COMERCIO IMPORTACAO E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>ORDINARIO</t>
+          <t>GLOBAL</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6147,12 +6147,12 @@
         <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>5821.99</v>
+        <v>194154.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -6241,17 +6241,17 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>33903922</t>
+          <t>33903946</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>EXPOSICOES, CONGRESSOS E CONFERENCIAS</t>
+          <t>SERVICOS DOMESTICOS</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>2023NE002724</t>
+          <t>2023NE000157</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -6260,26 +6260,26 @@
         </is>
       </c>
       <c r="W25" s="2" t="n">
-        <v>45282</v>
+        <v>44972</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>160129000012023NE002724</t>
+          <t>160129000012023NE000157</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>31741500000108</t>
+          <t>02347121000210</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>ELETROVIX COMERCIO IMPORTACAO E SERVICOS LTDA</t>
+          <t>ASMAR &amp; FURTADO LTDA</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>171</v>
+        <v>489</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -6376,21 +6376,21 @@
         </is>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>301.55</v>
       </c>
       <c r="AV25" t="n">
-        <v>0</v>
+        <v>1706.74</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>2008.29</v>
       </c>
       <c r="AX25" t="n">
-        <v>194154.4</v>
+        <v>2038.84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -6479,17 +6479,17 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>33903946</t>
+          <t>33903958</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>SERVICOS DOMESTICOS</t>
+          <t>SERVICOS DE TELECOMUNICACOES</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2023NE000157</t>
+          <t>2023NE000195</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -6498,41 +6498,41 @@
         </is>
       </c>
       <c r="W26" s="2" t="n">
-        <v>44972</v>
+        <v>44992</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>160129000012023NE000157</t>
+          <t>160129000012023NE000195</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>02347121000210</t>
+          <t>02421421000111</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>ASMAR &amp; FURTADO LTDA</t>
+          <t>TIM S A</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>RPNP</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>469</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AC26" t="n">
-        <v>481</v>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
       <c r="AE26" t="inlineStr">
         <is>
           <t>1000000000</t>
@@ -6614,21 +6614,21 @@
         </is>
       </c>
       <c r="AU26" t="n">
-        <v>301.55</v>
+        <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>1706.74</v>
+        <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>2008.29</v>
+        <v>0</v>
       </c>
       <c r="AX26" t="n">
-        <v>2038.84</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -6760,11 +6760,11 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>RPNP</t>
+          <t>RPP</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -6861,12 +6861,12 @@
         <v>0</v>
       </c>
       <c r="AX27" t="n">
-        <v>715</v>
+        <v>807.66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -6945,64 +6945,64 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>339039</t>
+          <t>339040</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>OUTROS SERVICOS DE TERCEIROS - PESSOA JURIDICA</t>
+          <t>SERVIÇOS DE TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO - PJ</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>33903958</t>
+          <t>33904012</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>SERVICOS DE TELECOMUNICACOES</t>
+          <t>MANUTENCAO E CONSERVACAO DE EQUIPAMENTOS DE TIC</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2023NE000195</t>
+          <t>2022NE001087</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="W28" s="2" t="n">
-        <v>44992</v>
+        <v>44840</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>160129000012023NE000195</t>
+          <t>160129000012022NE001087</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>02421421000111</t>
+          <t>05691235000190</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>TIM S A</t>
+          <t>COPYUAI LOCACAO DE EQUIPAMENTOS LTDA</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>RPP</t>
+          <t>RPNP</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>461</v>
+        <v>621</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -7093,18 +7093,18 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>0</v>
+        <v>151.01</v>
       </c>
       <c r="AW28" t="n">
-        <v>0</v>
+        <v>151.01</v>
       </c>
       <c r="AX28" t="n">
-        <v>807.66</v>
+        <v>1446.99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -7193,40 +7193,40 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>33904012</t>
+          <t>33904016</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>MANUTENCAO E CONSERVACAO DE EQUIPAMENTOS DE TIC</t>
+          <t>OUTSOURCING DE IMPRESSAO</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2022NE001087</t>
+          <t>2023NE000489</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="W29" s="2" t="n">
-        <v>44840</v>
+        <v>45050</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>160129000012022NE001087</t>
+          <t>160129000012023NE000489</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>05691235000190</t>
+          <t>38680138000151</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>COPYUAI LOCACAO DE EQUIPAMENTOS LTDA</t>
+          <t>GESMAQ COMERCIO E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>613</v>
+        <v>411</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -7331,18 +7331,18 @@
         <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>151.01</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>151.01</v>
+        <v>0</v>
       </c>
       <c r="AX29" t="n">
-        <v>1446.99</v>
+        <v>5902.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>2023NE000489</t>
+          <t>2023NE000490</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -7450,21 +7450,21 @@
         </is>
       </c>
       <c r="W30" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>160129000012023NE000489</t>
+          <t>160129000012023NE000490</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>38680138000151</t>
+          <t>68533967000172</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>GESMAQ COMERCIO E SERVICOS LTDA</t>
+          <t>PAPELARIA E COPIADORA COPYSUL LTDA.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -7478,7 +7478,7 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -7566,21 +7566,21 @@
         </is>
       </c>
       <c r="AU30" t="n">
-        <v>0</v>
+        <v>38898.17</v>
       </c>
       <c r="AV30" t="n">
-        <v>0</v>
+        <v>19621.46</v>
       </c>
       <c r="AW30" t="n">
-        <v>0</v>
+        <v>58519.63</v>
       </c>
       <c r="AX30" t="n">
-        <v>5902.08</v>
+        <v>41764.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2023NE000490</t>
+          <t>2023NE001103</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -7688,41 +7688,41 @@
         </is>
       </c>
       <c r="W31" s="2" t="n">
-        <v>45051</v>
+        <v>45174</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>160129000012023NE000490</t>
+          <t>160129000012023NE001103</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>68533967000172</t>
+          <t>07385089000109</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>PAPELARIA E COPIADORA COPYSUL LTDA.</t>
+          <t>GP EMISSAO INSTANTANEA E GESTAO DE DOCUMENTOS LTDA</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>RPNP</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>287</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AC31" t="n">
-        <v>402</v>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
       <c r="AE31" t="inlineStr">
         <is>
           <t>1000000000</t>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -7804,21 +7804,21 @@
         </is>
       </c>
       <c r="AU31" t="n">
-        <v>58519.63</v>
+        <v>4024.6</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="AW31" t="n">
-        <v>58519.63</v>
+        <v>10824.6</v>
       </c>
       <c r="AX31" t="n">
-        <v>41764.02</v>
+        <v>28258.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -7897,27 +7897,27 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>339040</t>
+          <t>449052</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>SERVIÇOS DE TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO - PJ</t>
+          <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>33904016</t>
+          <t>44905224</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>OUTSOURCING DE IMPRESSAO</t>
+          <t>EQUIPAMENTO DE PROTECAO, SEGURANCA E  SOCORRO</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2023NE001103</t>
+          <t>2023NE002464</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -7926,26 +7926,26 @@
         </is>
       </c>
       <c r="W32" s="2" t="n">
-        <v>45174</v>
+        <v>45260</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>160129000012023NE001103</t>
+          <t>160129000012023NE002464</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>07385089000109</t>
+          <t>08785181000110</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>GP EMISSAO INSTANTANEA E GESTAO DE DOCUMENTOS LTDA</t>
+          <t>JOSE BOMFIM DE OLIVEIRA</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>GLOBAL</t>
+          <t>ORDINARIO</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -8042,21 +8042,21 @@
         </is>
       </c>
       <c r="AU32" t="n">
-        <v>4024.6</v>
+        <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>7442.6</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>11467.2</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>27616</v>
+        <v>1277.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>356</v>
+        <v>705</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6012</t>
+          <t>6112</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -8110,17 +8110,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>160503</t>
+          <t>160129</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DECEX/GESTOR</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>171423</t>
+          <t>232082</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8135,64 +8135,56 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>449052</t>
+          <t>339015</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
+          <t>DIARIAS - PESSOAL MILITAR</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>44905224</t>
+          <t>33901514</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO DE PROTECAO, SEGURANCA E  SOCORRO</t>
+          <t>DIARIAS NO PAIS</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2023NE002464</t>
+          <t>2024NE000009</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="W33" s="2" t="n">
-        <v>45260</v>
+        <v>45313</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>160129000012023NE002464</t>
+          <t>160129000012024NE000009</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>08785181000110</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>JOSE BOMFIM DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
+          <t>160129</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>RPNP</t>
+          <t>ANO</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -8206,12 +8198,12 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>PREGAO</t>
+          <t>NAO SE APLICA</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>ORDINARIO</t>
+          <t>ESTIMATIVO</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -8251,7 +8243,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -8280,21 +8272,21 @@
         </is>
       </c>
       <c r="AU33" t="n">
-        <v>0</v>
+        <v>607.46</v>
       </c>
       <c r="AV33" t="n">
         <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>607.46</v>
       </c>
       <c r="AX33" t="n">
-        <v>1277.4</v>
+        <v>9529.91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>659</v>
+        <v>706</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -8393,7 +8385,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2024NE000009</t>
+          <t>2024NE000050</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -8402,11 +8394,11 @@
         </is>
       </c>
       <c r="W34" s="2" t="n">
-        <v>45313</v>
+        <v>45328</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>160129000012024NE000009</t>
+          <t>160129000012024NE000050</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -8422,7 +8414,7 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -8510,21 +8502,21 @@
         </is>
       </c>
       <c r="AU34" t="n">
-        <v>607.46</v>
+        <v>108022.09</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>2808.67</v>
       </c>
       <c r="AW34" t="n">
-        <v>607.46</v>
+        <v>110830.76</v>
       </c>
       <c r="AX34" t="n">
-        <v>9529.91</v>
+        <v>3372.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>660</v>
+        <v>707</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -8623,7 +8615,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2024NE000050</t>
+          <t>2024NE000393</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -8632,11 +8624,11 @@
         </is>
       </c>
       <c r="W35" s="2" t="n">
-        <v>45328</v>
+        <v>45400</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>160129000012024NE000050</t>
+          <t>160129000012024NE000393</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -8652,7 +8644,7 @@
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -8740,21 +8732,21 @@
         </is>
       </c>
       <c r="AU35" t="n">
-        <v>109476.71</v>
+        <v>2850.22</v>
       </c>
       <c r="AV35" t="n">
-        <v>1354.05</v>
+        <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>110830.76</v>
+        <v>2850.22</v>
       </c>
       <c r="AX35" t="n">
-        <v>3372.53</v>
+        <v>4405.61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>661</v>
+        <v>708</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -8833,27 +8825,27 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>339015</t>
+          <t>339093</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DIARIAS - PESSOAL MILITAR</t>
+          <t>INDENIZACOES E RESTITUICOES</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>33901514</t>
+          <t>33909302</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>DIARIAS NO PAIS</t>
+          <t>RESTITUICOES</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2024NE000393</t>
+          <t>2024NE000513</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -8862,11 +8854,11 @@
         </is>
       </c>
       <c r="W36" s="2" t="n">
-        <v>45400</v>
+        <v>45434</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>160129000012024NE000393</t>
+          <t>160129000012024NE000513</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -8882,7 +8874,7 @@
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -8970,21 +8962,21 @@
         </is>
       </c>
       <c r="AU36" t="n">
-        <v>2850.22</v>
+        <v>204500</v>
       </c>
       <c r="AV36" t="n">
         <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>2850.22</v>
+        <v>204500</v>
       </c>
       <c r="AX36" t="n">
-        <v>4405.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>662</v>
+        <v>711</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -9038,12 +9030,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>160129</t>
+          <t>160503</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>DECEX/GESTOR</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -9063,27 +9055,27 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>339093</t>
+          <t>339030</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>INDENIZACOES E RESTITUICOES</t>
+          <t>MATERIAL DE CONSUMO</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>33909302</t>
+          <t>33903004</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>RESTITUICOES</t>
+          <t>GAS E OUTROS MATERIAIS ENGARRAFADOS</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2024NE000513</t>
+          <t>2024NE000367</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -9092,27 +9084,35 @@
         </is>
       </c>
       <c r="W37" s="2" t="n">
-        <v>45434</v>
+        <v>45393</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>160129000012024NE000513</t>
+          <t>160129000012024NE000367</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>160129</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+          <t>29874397000122</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>AIRGAS GASES INDUSTRIAIS E MEDICINAIS LTDA</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
       <c r="AB37" t="inlineStr">
         <is>
           <t>ANO</t>
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>NAO SE APLICA</t>
+          <t>DISPENSA DE LICITACAO</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>ESTIMATIVO</t>
+          <t>ORDINARIO</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS - AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -9200,13 +9200,13 @@
         </is>
       </c>
       <c r="AU37" t="n">
-        <v>204500</v>
+        <v>6900</v>
       </c>
       <c r="AV37" t="n">
         <v>0</v>
       </c>
       <c r="AW37" t="n">
-        <v>204500</v>
+        <v>6900</v>
       </c>
       <c r="AX37" t="n">
         <v>0</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -9303,17 +9303,17 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>33903004</t>
+          <t>33903007</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>GAS E OUTROS MATERIAIS ENGARRAFADOS</t>
+          <t>GENEROS DE ALIMENTACAO</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2024NE000367</t>
+          <t>2024NE000374</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -9322,21 +9322,21 @@
         </is>
       </c>
       <c r="W38" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>160129000012024NE000367</t>
+          <t>160129000012024NE000374</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>29874397000122</t>
+          <t>47043589000179</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>AIRGAS GASES INDUSTRIAIS E MEDICINAIS LTDA</t>
+          <t>ASSOCIACAO DOS AGRICULTORES DE TRES CORACOES - AATC</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>ORDINARIO</t>
+          <t>GLOBAL</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS - AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
+          <t>AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -9438,21 +9438,21 @@
         </is>
       </c>
       <c r="AU38" t="n">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="AV38" t="n">
         <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="AX38" t="n">
-        <v>0</v>
+        <v>2450.54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2024NE000374</t>
+          <t>2024NE000375</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -9564,17 +9564,17 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>160129000012024NE000374</t>
+          <t>160129000012024NE000375</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>47043589000179</t>
+          <t>20702528000110</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>ASSOCIACAO DOS AGRICULTORES DE TRES CORACOES - AATC</t>
+          <t>SUPERMERCADO BIE LTDA</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -9588,7 +9588,7 @@
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>DISPENSA DE LICITACAO</t>
+          <t>PREGAO</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -9685,12 +9685,12 @@
         <v>0</v>
       </c>
       <c r="AX39" t="n">
-        <v>2450.54</v>
+        <v>779.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2024NE000375</t>
+          <t>2024NE000389</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -9798,11 +9798,11 @@
         </is>
       </c>
       <c r="W40" s="2" t="n">
-        <v>45394</v>
+        <v>45399</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>160129000012024NE000375</t>
+          <t>160129000012024NE000389</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
@@ -9840,12 +9840,12 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>PREGAO</t>
+          <t>DISPENSA DE LICITACAO</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>GLOBAL</t>
+          <t>ORDINARIO</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS - AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -9917,18 +9917,18 @@
         <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>45.59</v>
+        <v>1316.7</v>
       </c>
       <c r="AW40" t="n">
-        <v>45.59</v>
+        <v>1316.7</v>
       </c>
       <c r="AX40" t="n">
-        <v>733.8099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -10017,17 +10017,17 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>33903007</t>
+          <t>33903008</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>GENEROS DE ALIMENTACAO</t>
+          <t>ANIMAIS PARA PESQUISA E ABATE</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2024NE000389</t>
+          <t>2024NE000340</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -10036,11 +10036,11 @@
         </is>
       </c>
       <c r="W41" s="2" t="n">
-        <v>45399</v>
+        <v>45385</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>160129000012024NE000389</t>
+          <t>160129000012024NE000340</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -10064,7 +10064,7 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>ORDINARIO</t>
+          <t>GLOBAL</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
@@ -10155,10 +10155,10 @@
         <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>1316.7</v>
+        <v>9667.629999999999</v>
       </c>
       <c r="AW41" t="n">
-        <v>1316.7</v>
+        <v>9667.629999999999</v>
       </c>
       <c r="AX41" t="n">
         <v>0</v>
@@ -10166,7 +10166,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -10255,17 +10255,17 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>33903008</t>
+          <t>33903011</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>ANIMAIS PARA PESQUISA E ABATE</t>
+          <t>MATERIAL QUIMICO</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2024NE000340</t>
+          <t>2024NE000058</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -10274,41 +10274,41 @@
         </is>
       </c>
       <c r="W42" s="2" t="n">
-        <v>45385</v>
+        <v>45330</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>160129000012024NE000340</t>
+          <t>160129000012024NE000058</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>20702528000110</t>
+          <t>08403769000162</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>SUPERMERCADO BIE LTDA</t>
+          <t>AEROQUALITY COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>ANO</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>131</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>ANO</t>
-        </is>
-      </c>
-      <c r="AC42" t="n">
-        <v>68</v>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
       <c r="AE42" t="inlineStr">
         <is>
           <t>1000000000</t>
@@ -10316,12 +10316,12 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>DISPENSA DE LICITACAO</t>
+          <t>PREGAO</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>GLOBAL</t>
+          <t>ORDINARIO</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS - AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -10393,18 +10393,18 @@
         <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>9667.629999999999</v>
+        <v>0</v>
       </c>
       <c r="AW42" t="n">
-        <v>9667.629999999999</v>
+        <v>0</v>
       </c>
       <c r="AX42" t="n">
-        <v>0</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -10493,17 +10493,17 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>33903011</t>
+          <t>33903024</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>MATERIAL QUIMICO</t>
+          <t>MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2024NE000058</t>
+          <t>2024NE000056</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -10516,22 +10516,22 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>160129000012024NE000058</t>
+          <t>160129000012024NE000056</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>08403769000162</t>
+          <t>15329152000100</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>AEROQUALITY COMERCIO DE PRODUTOS E SERVICOS LTDA</t>
+          <t>ELITE COMERCIO E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="AC43" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
@@ -10637,12 +10637,12 @@
         <v>0</v>
       </c>
       <c r="AX43" t="n">
-        <v>2025</v>
+        <v>17796</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2024NE000056</t>
+          <t>2024NE000061</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -10754,22 +10754,22 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>160129000012024NE000056</t>
+          <t>160129000012024NE000061</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>15329152000100</t>
+          <t>10942831000136</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>ELITE COMERCIO E SERVICOS LTDA</t>
+          <t>COMERCIAL VANGUARDEIRA LTDA</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="AC44" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -10875,12 +10875,12 @@
         <v>0</v>
       </c>
       <c r="AX44" t="n">
-        <v>17796</v>
+        <v>191.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>672</v>
+        <v>719</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2024NE000061</t>
+          <t>2024NE000062</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -10992,22 +10992,22 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>160129000012024NE000061</t>
+          <t>160129000012024NE000062</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>10942831000136</t>
+          <t>33658130000175</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>COMERCIAL VANGUARDEIRA LTDA</t>
+          <t>FIEL COMERCIAL E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -11107,18 +11107,18 @@
         <v>0</v>
       </c>
       <c r="AV45" t="n">
+        <v>364</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>364</v>
+      </c>
+      <c r="AX45" t="n">
         <v>0</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>191.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>673</v>
+        <v>720</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>2024NE000062</t>
+          <t>2024NE000063</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -11230,22 +11230,22 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>160129000012024NE000062</t>
+          <t>160129000012024NE000063</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>33658130000175</t>
+          <t>28429720000196</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>FIEL COMERCIAL E SERVICOS LTDA</t>
+          <t>GLOBAL DISTRIBUICAO E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -11254,7 +11254,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -11345,10 +11345,10 @@
         <v>0</v>
       </c>
       <c r="AV46" t="n">
-        <v>364</v>
+        <v>71.8</v>
       </c>
       <c r="AW46" t="n">
-        <v>364</v>
+        <v>71.8</v>
       </c>
       <c r="AX46" t="n">
         <v>0</v>
@@ -11356,7 +11356,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>674</v>
+        <v>721</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2024NE000063</t>
+          <t>2024NE000065</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -11468,17 +11468,17 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>160129000012024NE000063</t>
+          <t>160129000012024NE000065</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>28429720000196</t>
+          <t>41841443000192</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>GLOBAL DISTRIBUICAO E SERVICOS LTDA</t>
+          <t>PAULO ELETRO LTDA</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -11583,18 +11583,18 @@
         <v>0</v>
       </c>
       <c r="AV47" t="n">
-        <v>71.8</v>
+        <v>0</v>
       </c>
       <c r="AW47" t="n">
-        <v>71.8</v>
+        <v>0</v>
       </c>
       <c r="AX47" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2024NE000065</t>
+          <t>2024NE000067</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -11706,22 +11706,22 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>160129000012024NE000065</t>
+          <t>160129000012024NE000067</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>41841443000192</t>
+          <t>49834027000179</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>PAULO ELETRO LTDA</t>
+          <t>AGREGA DISTRIBUIDORA LTDA</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -11730,7 +11730,7 @@
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
@@ -11827,12 +11827,12 @@
         <v>0</v>
       </c>
       <c r="AX48" t="n">
-        <v>450</v>
+        <v>447.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>676</v>
+        <v>723</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2024NE000067</t>
+          <t>2024NE000583</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -11940,26 +11940,26 @@
         </is>
       </c>
       <c r="W49" s="2" t="n">
-        <v>45330</v>
+        <v>45448</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>160129000012024NE000067</t>
+          <t>160129000012024NE000583</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>49834027000179</t>
+          <t>22598513000189</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>AGREGA DISTRIBUIDORA LTDA</t>
+          <t>NATURAL MIX BENEFICIAMENTO DE MINERAIS LTDA</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -11968,7 +11968,7 @@
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
@@ -12056,21 +12056,21 @@
         </is>
       </c>
       <c r="AU49" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AV49" t="n">
         <v>0</v>
       </c>
       <c r="AW49" t="n">
+        <v>1100</v>
+      </c>
+      <c r="AX49" t="n">
         <v>0</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>447.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>33903024</t>
+          <t>33903026</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2024NE000583</t>
+          <t>2024NE000055</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -12178,41 +12178,41 @@
         </is>
       </c>
       <c r="W50" s="2" t="n">
-        <v>45448</v>
+        <v>45330</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>160129000012024NE000583</t>
+          <t>160129000012024NE000055</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>22598513000189</t>
+          <t>20473312000120</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>NATURAL MIX BENEFICIAMENTO DE MINERAIS LTDA</t>
+          <t>A C P DA SILVA QUINOY COMERCIO E  SERVICOS</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>ANO</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>131</v>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>ANO</t>
-        </is>
-      </c>
-      <c r="AC50" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
       <c r="AE50" t="inlineStr">
         <is>
           <t>1000000000</t>
@@ -12294,21 +12294,21 @@
         </is>
       </c>
       <c r="AU50" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AV50" t="n">
         <v>0</v>
       </c>
       <c r="AW50" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AX50" t="n">
-        <v>0</v>
+        <v>684</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>678</v>
+        <v>725</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2024NE000055</t>
+          <t>2024NE000063</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -12420,22 +12420,22 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>160129000012024NE000055</t>
+          <t>160129000012024NE000063</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>20473312000120</t>
+          <t>28429720000196</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>A C P DA SILVA QUINOY COMERCIO E  SERVICOS</t>
+          <t>GLOBAL DISTRIBUICAO E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -12444,7 +12444,7 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -12535,18 +12535,18 @@
         <v>0</v>
       </c>
       <c r="AV51" t="n">
+        <v>1776.7</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>1776.7</v>
+      </c>
+      <c r="AX51" t="n">
         <v>0</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>684</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>679</v>
+        <v>726</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2024NE000063</t>
+          <t>2024NE000064</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -12658,17 +12658,17 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>160129000012024NE000063</t>
+          <t>160129000012024NE000064</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>28429720000196</t>
+          <t>51048656000115</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>GLOBAL DISTRIBUICAO E SERVICOS LTDA</t>
+          <t>MINAS BRAZIL DISTRIBUIDORA EIRELI</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -12773,18 +12773,18 @@
         <v>0</v>
       </c>
       <c r="AV52" t="n">
-        <v>1776.7</v>
+        <v>0</v>
       </c>
       <c r="AW52" t="n">
-        <v>1776.7</v>
+        <v>0</v>
       </c>
       <c r="AX52" t="n">
-        <v>0</v>
+        <v>777.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>680</v>
+        <v>727</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2024NE000064</t>
+          <t>2024NE000065</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -12896,17 +12896,17 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>160129000012024NE000064</t>
+          <t>160129000012024NE000065</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>51048656000115</t>
+          <t>41841443000192</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>MINAS BRAZIL DISTRIBUIDORA EIRELI</t>
+          <t>PAULO ELETRO LTDA</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -13017,12 +13017,12 @@
         <v>0</v>
       </c>
       <c r="AX53" t="n">
-        <v>777.3</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>681</v>
+        <v>728</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2024NE000065</t>
+          <t>2024NE000067</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -13134,22 +13134,22 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>160129000012024NE000065</t>
+          <t>160129000012024NE000067</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>41841443000192</t>
+          <t>49834027000179</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>PAULO ELETRO LTDA</t>
+          <t>AGREGA DISTRIBUIDORA LTDA</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -13158,7 +13158,7 @@
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
@@ -13255,12 +13255,12 @@
         <v>0</v>
       </c>
       <c r="AX54" t="n">
-        <v>5500</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>682</v>
+        <v>729</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2024NE000067</t>
+          <t>2024NE000068</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -13372,22 +13372,22 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>160129000012024NE000067</t>
+          <t>160129000012024NE000068</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>49834027000179</t>
+          <t>43892634000109</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>AGREGA DISTRIBUIDORA LTDA</t>
+          <t>BRAVE DISTRIBUIDORA LTDA</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -13493,12 +13493,12 @@
         <v>0</v>
       </c>
       <c r="AX55" t="n">
-        <v>162.5</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>683</v>
+        <v>730</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -13587,17 +13587,17 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>33903026</t>
+          <t>33903028</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>MATERIAL ELETRICO E ELETRONICO</t>
+          <t>MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>2024NE000068</t>
+          <t>2024NE000066</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -13610,22 +13610,22 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>160129000012024NE000068</t>
+          <t>160129000012024NE000066</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>43892634000109</t>
+          <t>12032954000165</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>BRAVE DISTRIBUIDORA LTDA</t>
+          <t>MEGABOR INDUSTRIA E COMERCIO DE EQUIPAMENTOS E VESTUARI</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -13634,7 +13634,7 @@
         </is>
       </c>
       <c r="AC56" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -13731,12 +13731,12 @@
         <v>0</v>
       </c>
       <c r="AX56" t="n">
-        <v>274</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>684</v>
+        <v>731</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -13815,27 +13815,27 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>339030</t>
+          <t>339033</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>MATERIAL DE CONSUMO</t>
+          <t>PASSAGENS E DESPESAS COM LOCOMOCAO</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>33903028</t>
+          <t>33903301</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>PASSAGENS PARA O PAIS</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2024NE000066</t>
+          <t>2024NE000011</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -13844,26 +13844,26 @@
         </is>
       </c>
       <c r="W57" s="2" t="n">
-        <v>45330</v>
+        <v>45314</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>160129000012024NE000066</t>
+          <t>160129000012024NE000011</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>12032954000165</t>
+          <t>14807420000199</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>MEGABOR INDUSTRIA E COMERCIO DE EQUIPAMENTOS E VESTUARI</t>
+          <t>FACTO TURISMO  LTDA</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="AC57" t="n">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>ORDINARIO</t>
+          <t>GLOBAL</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
+          <t>ESA</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
@@ -13960,21 +13960,21 @@
         </is>
       </c>
       <c r="AU57" t="n">
+        <v>13219.68</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>5380.32</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>18600</v>
+      </c>
+      <c r="AX57" t="n">
         <v>0</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>1101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>685</v>
+        <v>732</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2024NE000011</t>
+          <t>2024NE000123</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -14082,11 +14082,11 @@
         </is>
       </c>
       <c r="W58" s="2" t="n">
-        <v>45314</v>
+        <v>45348</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>160129000012024NE000011</t>
+          <t>160129000012024NE000123</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -14110,7 +14110,7 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -14198,21 +14198,21 @@
         </is>
       </c>
       <c r="AU58" t="n">
-        <v>13219.68</v>
+        <v>12575.56</v>
       </c>
       <c r="AV58" t="n">
-        <v>5380.32</v>
+        <v>0</v>
       </c>
       <c r="AW58" t="n">
-        <v>18600</v>
+        <v>12575.56</v>
       </c>
       <c r="AX58" t="n">
-        <v>0</v>
+        <v>2424.44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>686</v>
+        <v>733</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2024NE000123</t>
+          <t>2024NE000124</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -14324,17 +14324,17 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>160129000012024NE000123</t>
+          <t>160129000012024NE000124</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>14807420000199</t>
+          <t>21331404000138</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>FACTO TURISMO  LTDA</t>
+          <t>ORLEANS VIAGENS E TURISMO LTDA</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -14348,7 +14348,7 @@
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -14436,21 +14436,21 @@
         </is>
       </c>
       <c r="AU59" t="n">
-        <v>12575.56</v>
+        <v>4162.52</v>
       </c>
       <c r="AV59" t="n">
         <v>0</v>
       </c>
       <c r="AW59" t="n">
-        <v>12575.56</v>
+        <v>4162.52</v>
       </c>
       <c r="AX59" t="n">
-        <v>2424.44</v>
+        <v>837.48</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>687</v>
+        <v>734</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2024NE000124</t>
+          <t>2024NE000344</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -14558,21 +14558,21 @@
         </is>
       </c>
       <c r="W60" s="2" t="n">
-        <v>45348</v>
+        <v>45386</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>160129000012024NE000124</t>
+          <t>160129000012024NE000344</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>21331404000138</t>
+          <t>14807420000199</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>ORLEANS VIAGENS E TURISMO LTDA</t>
+          <t>FACTO TURISMO  LTDA</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -14586,7 +14586,7 @@
         </is>
       </c>
       <c r="AC60" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -14674,21 +14674,21 @@
         </is>
       </c>
       <c r="AU60" t="n">
-        <v>4162.52</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="AV60" t="n">
-        <v>0</v>
+        <v>1522.57</v>
       </c>
       <c r="AW60" t="n">
-        <v>4162.52</v>
+        <v>1612.92</v>
       </c>
       <c r="AX60" t="n">
-        <v>837.48</v>
+        <v>13373.08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>688</v>
+        <v>735</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2024NE000344</t>
+          <t>2024NE000345</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -14800,17 +14800,17 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>160129000012024NE000344</t>
+          <t>160129000012024NE000345</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>14807420000199</t>
+          <t>21331404000138</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>FACTO TURISMO  LTDA</t>
+          <t>ORLEANS VIAGENS E TURISMO LTDA</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="AC61" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
@@ -14912,21 +14912,21 @@
         </is>
       </c>
       <c r="AU61" t="n">
-        <v>90.34999999999999</v>
+        <v>1423.46</v>
       </c>
       <c r="AV61" t="n">
-        <v>1998.54</v>
+        <v>1499.74</v>
       </c>
       <c r="AW61" t="n">
-        <v>2088.89</v>
+        <v>2923.2</v>
       </c>
       <c r="AX61" t="n">
-        <v>12897.11</v>
+        <v>2076.8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>689</v>
+        <v>736</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>2024NE000345</t>
+          <t>2024NE000431</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -15034,11 +15034,11 @@
         </is>
       </c>
       <c r="W62" s="2" t="n">
-        <v>45386</v>
+        <v>45408</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>160129000012024NE000345</t>
+          <t>160129000012024NE000431</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -15062,7 +15062,7 @@
         </is>
       </c>
       <c r="AC62" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -15150,21 +15150,21 @@
         </is>
       </c>
       <c r="AU62" t="n">
-        <v>1516.1</v>
+        <v>1400</v>
       </c>
       <c r="AV62" t="n">
-        <v>1553.52</v>
+        <v>0</v>
       </c>
       <c r="AW62" t="n">
-        <v>3069.62</v>
+        <v>1400</v>
       </c>
       <c r="AX62" t="n">
-        <v>1930.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>690</v>
+        <v>737</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2024NE000431</t>
+          <t>2024NE000512</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -15272,11 +15272,11 @@
         </is>
       </c>
       <c r="W63" s="2" t="n">
-        <v>45408</v>
+        <v>45434</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>160129000012024NE000431</t>
+          <t>160129000012024NE000512</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -15300,7 +15300,7 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -15388,13 +15388,13 @@
         </is>
       </c>
       <c r="AU63" t="n">
-        <v>1400</v>
+        <v>2357.99</v>
       </c>
       <c r="AV63" t="n">
-        <v>0</v>
+        <v>7642.01</v>
       </c>
       <c r="AW63" t="n">
-        <v>1400</v>
+        <v>10000</v>
       </c>
       <c r="AX63" t="n">
         <v>0</v>
@@ -15402,7 +15402,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>691</v>
+        <v>738</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2024NE000512</t>
+          <t>2024NE000575</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -15510,21 +15510,21 @@
         </is>
       </c>
       <c r="W64" s="2" t="n">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>160129000012024NE000512</t>
+          <t>160129000012024NE000575</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>21331404000138</t>
+          <t>14807420000199</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>ORLEANS VIAGENS E TURISMO LTDA</t>
+          <t>FACTO TURISMO  LTDA</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -15538,7 +15538,7 @@
         </is>
       </c>
       <c r="AC64" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
@@ -15626,13 +15626,13 @@
         </is>
       </c>
       <c r="AU64" t="n">
-        <v>10000</v>
+        <v>913983.88</v>
       </c>
       <c r="AV64" t="n">
         <v>0</v>
       </c>
       <c r="AW64" t="n">
-        <v>10000</v>
+        <v>913983.88</v>
       </c>
       <c r="AX64" t="n">
         <v>0</v>
@@ -15640,7 +15640,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>692</v>
+        <v>739</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2024NE000575</t>
+          <t>2024NE000576</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -15752,17 +15752,17 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>160129000012024NE000575</t>
+          <t>160129000012024NE000576</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>14807420000199</t>
+          <t>21331404000138</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>FACTO TURISMO  LTDA</t>
+          <t>ORLEANS VIAGENS E TURISMO LTDA</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -15776,7 +15776,7 @@
         </is>
       </c>
       <c r="AC65" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
@@ -15864,13 +15864,13 @@
         </is>
       </c>
       <c r="AU65" t="n">
-        <v>913983.88</v>
+        <v>228495.97</v>
       </c>
       <c r="AV65" t="n">
         <v>0</v>
       </c>
       <c r="AW65" t="n">
-        <v>913983.88</v>
+        <v>228495.97</v>
       </c>
       <c r="AX65" t="n">
         <v>0</v>
@@ -15878,7 +15878,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>693</v>
+        <v>740</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -15967,17 +15967,17 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>33903301</t>
+          <t>33903309</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>PASSAGENS PARA O PAIS</t>
+          <t>TRANSPORTE DE SERVIDORES</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2024NE000576</t>
+          <t>2024NE000395</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -15986,26 +15986,26 @@
         </is>
       </c>
       <c r="W66" s="2" t="n">
-        <v>45446</v>
+        <v>45400</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>160129000012024NE000576</t>
+          <t>160129000012024NE000395</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>21331404000138</t>
+          <t>92221589000176</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>ORLEANS VIAGENS E TURISMO LTDA</t>
+          <t>IRMAOS KOPERECK LTDA</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -16014,7 +16014,7 @@
         </is>
       </c>
       <c r="AC66" t="n">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>ESA</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS - AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
         </is>
       </c>
       <c r="AP66" t="inlineStr">
@@ -16102,13 +16102,13 @@
         </is>
       </c>
       <c r="AU66" t="n">
-        <v>228495.97</v>
+        <v>211311.87</v>
       </c>
       <c r="AV66" t="n">
         <v>0</v>
       </c>
       <c r="AW66" t="n">
-        <v>228495.97</v>
+        <v>211311.87</v>
       </c>
       <c r="AX66" t="n">
         <v>0</v>
@@ -16116,7 +16116,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>694</v>
+        <v>741</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -16195,27 +16195,27 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>339033</t>
+          <t>339039</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>PASSAGENS E DESPESAS COM LOCOMOCAO</t>
+          <t>OUTROS SERVICOS DE TERCEIROS - PESSOA JURIDICA</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>33903309</t>
+          <t>33903946</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SERVIDORES</t>
+          <t>SERVICOS DOMESTICOS</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>2024NE000395</t>
+          <t>2024NE000167</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -16224,26 +16224,26 @@
         </is>
       </c>
       <c r="W67" s="2" t="n">
-        <v>45400</v>
+        <v>45349</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>160129000012024NE000395</t>
+          <t>160129000012024NE000167</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>92221589000176</t>
+          <t>15272846000158</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>IRMAOS KOPERECK LTDA</t>
+          <t>PS SERVICOS DE LAVANDERIA LTDA</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>RN</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -16252,7 +16252,7 @@
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -16340,13 +16340,13 @@
         </is>
       </c>
       <c r="AU67" t="n">
-        <v>211311.87</v>
+        <v>17814.6</v>
       </c>
       <c r="AV67" t="n">
         <v>0</v>
       </c>
       <c r="AW67" t="n">
-        <v>211311.87</v>
+        <v>17814.6</v>
       </c>
       <c r="AX67" t="n">
         <v>0</v>
@@ -16354,7 +16354,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>695</v>
+        <v>742</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2024NE000167</t>
+          <t>2024NE000346</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -16462,11 +16462,11 @@
         </is>
       </c>
       <c r="W68" s="2" t="n">
-        <v>45349</v>
+        <v>45386</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>160129000012024NE000167</t>
+          <t>160129000012024NE000346</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -16490,7 +16490,7 @@
         </is>
       </c>
       <c r="AC68" t="n">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -16578,13 +16578,13 @@
         </is>
       </c>
       <c r="AU68" t="n">
-        <v>17814.6</v>
+        <v>3988</v>
       </c>
       <c r="AV68" t="n">
         <v>0</v>
       </c>
       <c r="AW68" t="n">
-        <v>17814.6</v>
+        <v>3988</v>
       </c>
       <c r="AX68" t="n">
         <v>0</v>
@@ -16592,7 +16592,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>696</v>
+        <v>743</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -16681,17 +16681,17 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>33903946</t>
+          <t>33903947</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>SERVICOS DOMESTICOS</t>
+          <t>SERVICOS DE COMUNICACAO EM GERAL</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2024NE000346</t>
+          <t>2024NE000238</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -16700,26 +16700,26 @@
         </is>
       </c>
       <c r="W69" s="2" t="n">
-        <v>45386</v>
+        <v>45357</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>160129000012024NE000346</t>
+          <t>160129000012024NE000238</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>15272846000158</t>
+          <t>34028316001509</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>PS SERVICOS DE LAVANDERIA LTDA</t>
+          <t>EMPRESA BRASILEIRA DE CORREIOS E TELEGRAFOS</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>RN</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -16728,7 +16728,7 @@
         </is>
       </c>
       <c r="AC69" t="n">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>PREGAO</t>
+          <t>DISPENSA DE LICITACAO</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
@@ -16816,13 +16816,13 @@
         </is>
       </c>
       <c r="AU69" t="n">
-        <v>3988</v>
+        <v>21255.85</v>
       </c>
       <c r="AV69" t="n">
-        <v>0</v>
+        <v>8744.15</v>
       </c>
       <c r="AW69" t="n">
-        <v>3988</v>
+        <v>30000</v>
       </c>
       <c r="AX69" t="n">
         <v>0</v>
@@ -16830,7 +16830,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>697</v>
+        <v>744</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>2024NE000238</t>
+          <t>2024NE000640</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -16938,11 +16938,11 @@
         </is>
       </c>
       <c r="W70" s="2" t="n">
-        <v>45357</v>
+        <v>45460</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>160129000012024NE000238</t>
+          <t>160129000012024NE000640</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -16966,7 +16966,7 @@
         </is>
       </c>
       <c r="AC70" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS - AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
         </is>
       </c>
       <c r="AP70" t="inlineStr">
@@ -17054,13 +17054,13 @@
         </is>
       </c>
       <c r="AU70" t="n">
-        <v>21255.85</v>
+        <v>250000</v>
       </c>
       <c r="AV70" t="n">
-        <v>8744.15</v>
+        <v>0</v>
       </c>
       <c r="AW70" t="n">
-        <v>30000</v>
+        <v>250000</v>
       </c>
       <c r="AX70" t="n">
         <v>0</v>
@@ -17068,7 +17068,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>698</v>
+        <v>745</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -17157,17 +17157,17 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>33903958</t>
+          <t>33903947</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>SERVICOS DE TELECOMUNICACOES</t>
+          <t>SERVICOS DE COMUNICACAO EM GERAL</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>2024NE000054</t>
+          <t>2024NE000641</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -17176,26 +17176,26 @@
         </is>
       </c>
       <c r="W71" s="2" t="n">
-        <v>45329</v>
+        <v>45460</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>160129000012024NE000054</t>
+          <t>160129000012024NE000641</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>02421421000111</t>
+          <t>34028316001509</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>TIM S A</t>
+          <t>EMPRESA BRASILEIRA DE CORREIOS E TELEGRAFOS</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -17204,7 +17204,7 @@
         </is>
       </c>
       <c r="AC71" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>PREGAO</t>
+          <t>DISPENSA DE LICITACAO</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
         </is>
       </c>
       <c r="AP71" t="inlineStr">
@@ -17292,21 +17292,21 @@
         </is>
       </c>
       <c r="AU71" t="n">
-        <v>128.51</v>
+        <v>150419.79</v>
       </c>
       <c r="AV71" t="n">
-        <v>881.5700000000001</v>
+        <v>0</v>
       </c>
       <c r="AW71" t="n">
-        <v>1010.08</v>
+        <v>150419.79</v>
       </c>
       <c r="AX71" t="n">
-        <v>2430.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>699</v>
+        <v>746</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -17395,17 +17395,17 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>33903960</t>
+          <t>33903958</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>SERVICOS DE MANOBRA E PATRULHAMENTO</t>
+          <t>SERVICOS DE TELECOMUNICACOES</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2024NE000341</t>
+          <t>2024NE000054</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -17414,26 +17414,26 @@
         </is>
       </c>
       <c r="W72" s="2" t="n">
-        <v>45385</v>
+        <v>45329</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>160129000012024NE000341</t>
+          <t>160129000012024NE000054</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>05520402000211</t>
+          <t>02421421000111</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>ONIXSAT RASTREAMENTO DE VEICULOS LTDA</t>
+          <t>TIM S A</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -17442,7 +17442,7 @@
         </is>
       </c>
       <c r="AC72" t="n">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS - AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP72" t="inlineStr">
@@ -17530,21 +17530,21 @@
         </is>
       </c>
       <c r="AU72" t="n">
-        <v>0</v>
+        <v>128.51</v>
       </c>
       <c r="AV72" t="n">
-        <v>17625.24</v>
+        <v>881.5700000000001</v>
       </c>
       <c r="AW72" t="n">
-        <v>17625.24</v>
+        <v>1010.08</v>
       </c>
       <c r="AX72" t="n">
-        <v>0</v>
+        <v>2430.68</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -17633,17 +17633,17 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>33903963</t>
+          <t>33903960</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>SERVICOS GRAFICOS E EDITORIAIS</t>
+          <t>SERVICOS DE MANOBRA E PATRULHAMENTO</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2024NE000387</t>
+          <t>2024NE000341</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -17652,26 +17652,26 @@
         </is>
       </c>
       <c r="W73" s="2" t="n">
-        <v>45399</v>
+        <v>45385</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>160129000012024NE000387</t>
+          <t>160129000012024NE000341</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>51955889000100</t>
+          <t>05520402000211</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>RV BATATAIS COMERCIO E SERVICOS LTDA</t>
+          <t>ONIXSAT RASTREAMENTO DE VEICULOS LTDA</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -17680,7 +17680,7 @@
         </is>
       </c>
       <c r="AC73" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="AD73" t="inlineStr">
         <is>
@@ -17694,12 +17694,12 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>DISPENSA DE LICITACAO</t>
+          <t>PREGAO</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>ORDINARIO</t>
+          <t>GLOBAL</t>
         </is>
       </c>
       <c r="AH73" t="inlineStr">
@@ -17768,13 +17768,13 @@
         </is>
       </c>
       <c r="AU73" t="n">
-        <v>459.8</v>
+        <v>0</v>
       </c>
       <c r="AV73" t="n">
-        <v>0</v>
+        <v>17625.24</v>
       </c>
       <c r="AW73" t="n">
-        <v>459.8</v>
+        <v>17625.24</v>
       </c>
       <c r="AX73" t="n">
         <v>0</v>
@@ -17782,7 +17782,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>701</v>
+        <v>748</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -17861,27 +17861,27 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>339040</t>
+          <t>339039</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>SERVIÇOS DE TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO - PJ</t>
+          <t>OUTROS SERVICOS DE TERCEIROS - PESSOA JURIDICA</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>33904016</t>
+          <t>33903963</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>OUTSOURCING DE IMPRESSAO</t>
+          <t>SERVICOS GRAFICOS E EDITORIAIS</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>2024NE000568</t>
+          <t>2024NE000387</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -17890,21 +17890,21 @@
         </is>
       </c>
       <c r="W74" s="2" t="n">
-        <v>45441</v>
+        <v>45399</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>160129000012024NE000568</t>
+          <t>160129000012024NE000387</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>07385089000109</t>
+          <t>51955889000100</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>GP EMISSAO INSTANTANEA E GESTAO DE DOCUMENTOS LTDA</t>
+          <t>RV BATATAIS COMERCIO E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -17918,7 +17918,7 @@
         </is>
       </c>
       <c r="AC74" t="n">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="AD74" t="inlineStr">
         <is>
@@ -17932,12 +17932,12 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>PREGAO</t>
+          <t>DISPENSA DE LICITACAO</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>GLOBAL</t>
+          <t>ORDINARIO</t>
         </is>
       </c>
       <c r="AH74" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS - AV. SETE DE SETEMBRO, 628 - CENTRO, TRÊS CORAÇÕES - MG, 37410-155</t>
         </is>
       </c>
       <c r="AP74" t="inlineStr">
@@ -18006,13 +18006,13 @@
         </is>
       </c>
       <c r="AU74" t="n">
-        <v>11872.97</v>
+        <v>459.8</v>
       </c>
       <c r="AV74" t="n">
         <v>0</v>
       </c>
       <c r="AW74" t="n">
-        <v>11872.97</v>
+        <v>459.8</v>
       </c>
       <c r="AX74" t="n">
         <v>0</v>
@@ -18020,7 +18020,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>702</v>
+        <v>749</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -18099,27 +18099,27 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>339040</t>
+          <t>339039</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>SERVIÇOS DE TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO - PJ</t>
+          <t>OUTROS SERVICOS DE TERCEIROS - PESSOA JURIDICA</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>33904016</t>
+          <t>33903983</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>OUTSOURCING DE IMPRESSAO</t>
+          <t>SERVICOS DE COPIAS E REPRODUCAO DE DOCUMENTOS</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2024NE000569</t>
+          <t>2024NE000639</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -18128,26 +18128,26 @@
         </is>
       </c>
       <c r="W75" s="2" t="n">
-        <v>45441</v>
+        <v>45460</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>160129000012024NE000569</t>
+          <t>160129000012024NE000639</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>07385089000109</t>
+          <t>68533967000172</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>GP EMISSAO INSTANTANEA E GESTAO DE DOCUMENTOS LTDA</t>
+          <t>PAPELARIA E COPIADORA COPYSUL LTDA.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -18156,7 +18156,7 @@
         </is>
       </c>
       <c r="AC75" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AD75" t="inlineStr">
         <is>
@@ -18244,13 +18244,13 @@
         </is>
       </c>
       <c r="AU75" t="n">
-        <v>8127.03</v>
+        <v>178920</v>
       </c>
       <c r="AV75" t="n">
         <v>0</v>
       </c>
       <c r="AW75" t="n">
-        <v>8127.03</v>
+        <v>178920</v>
       </c>
       <c r="AX75" t="n">
         <v>0</v>
@@ -18258,7 +18258,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>703</v>
+        <v>750</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -18337,27 +18337,27 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>449052</t>
+          <t>339040</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
+          <t>SERVIÇOS DE TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO - PJ</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>44905239</t>
+          <t>33904016</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>EQUIP. E UTENSILIOS HIDRAULICOS E ELETRICOS</t>
+          <t>OUTSOURCING DE IMPRESSAO</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>2024NE000053</t>
+          <t>2024NE000568</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -18366,26 +18366,26 @@
         </is>
       </c>
       <c r="W76" s="2" t="n">
-        <v>45329</v>
+        <v>45441</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>160129000012024NE000053</t>
+          <t>160129000012024NE000568</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>43084056000184</t>
+          <t>07385089000109</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>43.084.056 LIZANDRA RIBEIRO PINTO</t>
+          <t>GP EMISSAO INSTANTANEA E GESTAO DE DOCUMENTOS LTDA</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -18394,7 +18394,7 @@
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
@@ -18408,12 +18408,12 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>DISPENSA DE LICITACAO</t>
+          <t>PREGAO</t>
         </is>
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>ORDINARIO</t>
+          <t>GLOBAL</t>
         </is>
       </c>
       <c r="AH76" t="inlineStr">
@@ -18482,13 +18482,13 @@
         </is>
       </c>
       <c r="AU76" t="n">
-        <v>1790</v>
+        <v>11872.97</v>
       </c>
       <c r="AV76" t="n">
         <v>0</v>
       </c>
       <c r="AW76" t="n">
-        <v>1790</v>
+        <v>11872.97</v>
       </c>
       <c r="AX76" t="n">
         <v>0</v>
@@ -18496,7 +18496,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>704</v>
+        <v>751</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -18575,27 +18575,27 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>449052</t>
+          <t>339040</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
+          <t>SERVIÇOS DE TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO - PJ</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>44905239</t>
+          <t>33904016</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>EQUIP. E UTENSILIOS HIDRAULICOS E ELETRICOS</t>
+          <t>OUTSOURCING DE IMPRESSAO</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2024NE000586</t>
+          <t>2024NE000569</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -18604,26 +18604,26 @@
         </is>
       </c>
       <c r="W77" s="2" t="n">
-        <v>45449</v>
+        <v>45441</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>160129000012024NE000586</t>
+          <t>160129000012024NE000569</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>12308936000163</t>
+          <t>07385089000109</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>INOVART - COMERCIO DE EQUIPAMENTOS LTDA</t>
+          <t>GP EMISSAO INSTANTANEA E GESTAO DE DOCUMENTOS LTDA</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -18632,7 +18632,7 @@
         </is>
       </c>
       <c r="AC77" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AD77" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>ORDINARIO</t>
+          <t>GLOBAL</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
@@ -18720,15 +18720,491 @@
         </is>
       </c>
       <c r="AU77" t="n">
-        <v>9990</v>
+        <v>8127.03</v>
       </c>
       <c r="AV77" t="n">
         <v>0</v>
       </c>
       <c r="AW77" t="n">
+        <v>8127.03</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160129</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ESA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>160533</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>4º CGCFEX</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CML</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>4ª RM</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Três Corações</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>6112</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>8965</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>CAPACITACAO PROFISSIONAL MILITAR DO E</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>160503</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>DECEX/GESTOR</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>232082</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>C4ENMILCAPE</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>CAPACITACAO DE PESSOAL</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>449052</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>44905239</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>EQUIP. E UTENSILIOS HIDRAULICOS E ELETRICOS</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>2024NE000053</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="W78" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>160129000012024NE000053</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>43084056000184</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>43.084.056 LIZANDRA RIBEIRO PINTO</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>ANO</t>
+        </is>
+      </c>
+      <c r="AC78" t="n">
+        <v>132</v>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>1000000000</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>DISPENSA DE LICITACAO</t>
+        </is>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>ORDINARIO</t>
+        </is>
+      </c>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>PRIMARIO DISCRICIONARIO</t>
+        </is>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>INICIAL (LOA)</t>
+        </is>
+      </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="AM78" t="inlineStr">
+        <is>
+          <t>000000000000</t>
+        </is>
+      </c>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>SEM EMENDA</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
+        </is>
+      </c>
+      <c r="AP78" t="inlineStr">
+        <is>
+          <t>52121</t>
+        </is>
+      </c>
+      <c r="AQ78" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="AR78" t="inlineStr">
+        <is>
+          <t>C4EN</t>
+        </is>
+      </c>
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="AU78" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>160129</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ESA</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>160533</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>4º CGCFEX</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CML</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>4ª RM</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Três Corações</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>6112</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>8965</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>CAPACITACAO PROFISSIONAL MILITAR DO E</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>160503</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>DECEX/GESTOR</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>232082</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>C4ENMILCAPE</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>CAPACITACAO DE PESSOAL</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>449052</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>44905239</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>EQUIP. E UTENSILIOS HIDRAULICOS E ELETRICOS</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>2024NE000586</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="W79" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>160129000012024NE000586</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>12308936000163</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>INOVART - COMERCIO DE EQUIPAMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>ANO</t>
+        </is>
+      </c>
+      <c r="AC79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>1000000000</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>PREGAO</t>
+        </is>
+      </c>
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>ORDINARIO</t>
+        </is>
+      </c>
+      <c r="AH79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>PRIMARIO DISCRICIONARIO</t>
+        </is>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>INICIAL (LOA)</t>
+        </is>
+      </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>000000000000</t>
+        </is>
+      </c>
+      <c r="AN79" t="inlineStr">
+        <is>
+          <t>SEM EMENDA</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
+        </is>
+      </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>52121</t>
+        </is>
+      </c>
+      <c r="AQ79" t="inlineStr">
+        <is>
+          <t>COMANDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="AR79" t="inlineStr">
+        <is>
+          <t>C4EN</t>
+        </is>
+      </c>
+      <c r="AS79" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="AU79" t="n">
         <v>9990</v>
       </c>
-      <c r="AX77" t="n">
+      <c r="AV79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>9990</v>
+      </c>
+      <c r="AX79" t="n">
         <v>0</v>
       </c>
     </row>
